--- a/src/main/resources/178-sc/sc-consumer-jsp_attribute.xlsx
+++ b/src/main/resources/178-sc/sc-consumer-jsp_attribute.xlsx
@@ -477,10 +477,10 @@
     <t>com.wangxin.consumer.jsp.web.controller.auth.LoginController</t>
   </si>
   <si>
-    <t>login(org.springframework.web.servlet.mvc.support.RedirectAttributes)</t>
-  </si>
-  <si>
-    <t>org.springframework.web.servlet.mvc.support.RedirectAttributes</t>
+    <t>login(com.wangxin.common.api.model.auth.User,org.springframework.web.servlet.mvc.support.RedirectAttributes)</t>
+  </si>
+  <si>
+    <t>com.wangxin.common.api.model.auth.User,org.springframework.web.servlet.mvc.support.RedirectAttributes</t>
   </si>
   <si>
     <t>public</t>
@@ -510,10 +510,10 @@
     <t>home()</t>
   </si>
   <si>
-    <t>error(javax.servlet.http.HttpServletRequest)</t>
-  </si>
-  <si>
-    <t>javax.servlet.http.HttpServletRequest</t>
+    <t>error(javax.servlet.http.HttpServletRequest,org.springframework.ui.ModelMap)</t>
+  </si>
+  <si>
+    <t>javax.servlet.http.HttpServletRequest,org.springframework.ui.ModelMap</t>
   </si>
   <si>
     <t>topnav()</t>
